--- a/CMSBenz/src/test/java/CMSBenz/Data.xlsx
+++ b/CMSBenz/src/test/java/CMSBenz/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15870" windowHeight="4890"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="16830" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Keys</t>
   </si>
@@ -25,29 +25,111 @@
     <t>Values</t>
   </si>
   <si>
-    <t>arun</t>
-  </si>
-  <si>
     <t>login_username</t>
   </si>
   <si>
     <t>login_pwd</t>
   </si>
   <si>
-    <t>CMS123$</t>
+    <t>invalid_username</t>
+  </si>
+  <si>
+    <t>arun123</t>
+  </si>
+  <si>
+    <t>invalid_pwd</t>
+  </si>
+  <si>
+    <r>
+      <t>test123</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+  </si>
+  <si>
+    <t>frgt_mailid</t>
+  </si>
+  <si>
+    <t>testing.engg@isolve.co.in</t>
+  </si>
+  <si>
+    <t>isolve123$</t>
+  </si>
+  <si>
+    <t>arunkumar</t>
+  </si>
+  <si>
+    <t>Mageshwaran</t>
+  </si>
+  <si>
+    <t>Testing.engg@isolve.co.in</t>
+  </si>
+  <si>
+    <t>ma128280</t>
+  </si>
+  <si>
+    <t>isolveautotest</t>
+  </si>
+  <si>
+    <t>firstname_reg_pg</t>
+  </si>
+  <si>
+    <t>lastname_reg_pg</t>
+  </si>
+  <si>
+    <t>email_reg_pg</t>
+  </si>
+  <si>
+    <t>employeeno_reg_pg</t>
+  </si>
+  <si>
+    <t>username_reg_pg</t>
+  </si>
+  <si>
+    <t>designation_reg_pg</t>
+  </si>
+  <si>
+    <t>mobileno_reg_pg</t>
+  </si>
+  <si>
+    <t>senthilkumar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,13 +149,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -374,36 +467,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9876541470</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
